--- a/ExampleDQOFrequencyCompleteness.xlsx
+++ b/ExampleDQOFrequencyCompleteness.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\proj\MassWateR\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Example input files\Official Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662323AC-169F-49B8-B8D5-4350A03C2C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B01976F-154F-425C-BAE6-9FA59F366DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="945" windowWidth="19455" windowHeight="9315" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Completeness" sheetId="2" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Parameter</t>
   </si>
@@ -46,59 +49,116 @@
     <t>Spike/Check Accuracy</t>
   </si>
   <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Field Blank</t>
+  </si>
+  <si>
+    <t>Lab Blank</t>
+  </si>
+  <si>
+    <t>Completeness %</t>
+  </si>
+  <si>
+    <t>Frequency %</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Available Values</t>
+  </si>
+  <si>
+    <t>E.coli</t>
+  </si>
+  <si>
+    <t>see parameter list</t>
+  </si>
+  <si>
+    <t>The Completeness tab must be formatted exactly like the Completeness template, with all of the following fields.</t>
+  </si>
+  <si>
+    <t>The Completeness tab must be the first tab in this workbook.</t>
+  </si>
+  <si>
+    <t>Frequency %: Field Duplicate</t>
+  </si>
+  <si>
+    <t>Frequency %: Lab Duplicate</t>
+  </si>
+  <si>
+    <t>Frequency %: Field Blank</t>
+  </si>
+  <si>
+    <t>Frequency %: Lab Blank</t>
+  </si>
+  <si>
+    <t>Frequency %: Spike/Check Accuracy</t>
+  </si>
+  <si>
+    <t>Enter the completeness objective as a percentage of total samples collected or measured.  This is the maximum allowable percentage of qualified, censored, or incomplete records.</t>
+  </si>
+  <si>
+    <t>Enter the spike/check accuracy frequency objective as a percentage of total lab spikes or calibration checks executed.  This is the maximum allowable percentage of QC misses.</t>
+  </si>
+  <si>
+    <t>Enter the lab blank frequency objective as a percentage of total lab blanks executed.  This is the maximum allowable percentage of QC misses.</t>
+  </si>
+  <si>
+    <t>Enter the field blank frequency objective as a percentage of total field blanks executed.  This is the maximum allowable percentage of QC misses.</t>
+  </si>
+  <si>
+    <t>Enter the lab duplicate frequency objective as a percentage of total lab duplicates executed.  This is the maximum allowable percentage of QC misses.</t>
+  </si>
+  <si>
+    <t>Enter the field duplicate frequency objective as a percentage of total field duplicates executed.  This is the maximum allowable percentage of QC misses.</t>
+  </si>
+  <si>
+    <t>For the following objectives:  They should be entereded as a numeric value representing a percentage.  If the quality control check is not valid for the corresponding parameter, enter "na".</t>
+  </si>
+  <si>
+    <t>All cells in the matrix must either have a value or "na".</t>
+  </si>
+  <si>
+    <t>Name of the measured parameter.  This list of parameters will define which parameters are returned in the QC reports and other automated reports such as the Outlier report for all parameters.  Think of this as the master list of parameters to be evaluated.</t>
+  </si>
+  <si>
+    <t>numeric, or na</t>
+  </si>
+  <si>
     <t>Water Temp</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>DO</t>
-  </si>
-  <si>
-    <t>Conductivity</t>
-  </si>
-  <si>
-    <t>TSS</t>
+    <t>Sp Conductance</t>
   </si>
   <si>
     <t>TP</t>
   </si>
   <si>
-    <t>Chloride</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>Field Blank</t>
-  </si>
-  <si>
-    <t>Lab Blank</t>
-  </si>
-  <si>
-    <t>Completeness %</t>
-  </si>
-  <si>
-    <t>Frequency %</t>
-  </si>
-  <si>
-    <t>Ortho P</t>
-  </si>
-  <si>
-    <t>Chl a</t>
-  </si>
-  <si>
     <t>Ammonia</t>
-  </si>
-  <si>
-    <t>Nitrate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +174,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -178,21 +260,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -516,307 +631,238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59ABFCD-EF8D-425C-92A4-3137E9EF3DBA}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" style="17" customWidth="1"/>
+    <col min="2" max="6" width="12.26953125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="15"/>
+      <c r="B1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B4" s="5">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="B8" s="5">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6">
-        <v>5</v>
-      </c>
-      <c r="F7" s="6">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6">
-        <v>10</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5</v>
-      </c>
-      <c r="G9" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
-        <v>10</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6">
-        <v>5</v>
-      </c>
-      <c r="G10" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="G11" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="6">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6">
-        <v>5</v>
-      </c>
-      <c r="F13" s="6">
-        <v>5</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="G10" s="5">
         <v>90</v>
       </c>
     </row>
@@ -828,4 +874,167 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="96.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8">
+        <v>10</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8">
+        <v>10</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ExampleDQOFrequencyCompleteness.xlsx
+++ b/ExampleDQOFrequencyCompleteness.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Example input files\Official Samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B01976F-154F-425C-BAE6-9FA59F366DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D691F630-B190-4FB0-A99F-12655A53F7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{20339F69-97D7-4797-B0E4-E58661B4B2FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Completeness" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Parameter</t>
   </si>
@@ -142,6 +142,9 @@
     <t>numeric, or na</t>
   </si>
   <si>
+    <t>Template updated 12/8/22.</t>
+  </si>
+  <si>
     <t>Water Temp</t>
   </si>
   <si>
@@ -152,13 +155,16 @@
   </si>
   <si>
     <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Samples updated 1/8/23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +192,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -309,6 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -631,37 +645,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59ABFCD-EF8D-425C-92A4-3137E9EF3DBA}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="17" customWidth="1"/>
-    <col min="2" max="6" width="12.26953125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="17" customWidth="1"/>
+    <col min="2" max="6" width="12.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
-      <c r="B1" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -680,11 +694,11 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5">
         <v>10</v>
@@ -705,7 +719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
@@ -728,7 +742,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
@@ -751,9 +765,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="5">
         <v>10</v>
@@ -774,9 +788,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="5">
         <v>10</v>
@@ -797,7 +811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>11</v>
       </c>
@@ -820,9 +834,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5">
         <v>10</v>
@@ -843,7 +857,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>16</v>
       </c>
@@ -877,40 +891,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B018340-0568-4AC2-B9FC-8F5216302128}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="2" width="96.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="96.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -924,7 +944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
@@ -938,7 +958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
         <v>31</v>
@@ -946,7 +966,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
@@ -960,7 +980,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -974,7 +994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
@@ -988,7 +1008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -1002,7 +1022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
@@ -1016,7 +1036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
     </row>
   </sheetData>
